--- a/4-transforming-rows/state-populations.xlsx
+++ b/4-transforming-rows/state-populations.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intro-to-excel-power-query\3-transform-rows\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intro-to-excel-power-query\4-transforming-rows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C0DCAE0-2ACE-4E47-8698-7393077E564E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC1EB5-EC70-455F-B28F-B9C59D462D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FCAB1A66-0099-44C2-A0E5-A8B6C271FDEC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{FCAB1A66-0099-44C2-A0E5-A8B6C271FDEC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="states" sheetId="1" r:id="rId1"/>
+    <sheet name="midwest_cities" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="111">
   <si>
     <t>region</t>
   </si>
@@ -238,6 +242,132 @@
   </si>
   <si>
     <t>United States</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Cities</t>
+  </si>
+  <si>
+    <t>1. Chicago</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Illinois</t>
+  </si>
+  <si>
+    <t>2. Indianapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Indiana</t>
+  </si>
+  <si>
+    <t>3. Columbus</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ohio</t>
+  </si>
+  <si>
+    <t>4. Detroit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Michigan</t>
+  </si>
+  <si>
+    <t>5. Milwaukee</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wisconsin</t>
+  </si>
+  <si>
+    <t>6. Kansas City</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Missouri</t>
+  </si>
+  <si>
+    <t>7. Omaha</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nebraska</t>
+  </si>
+  <si>
+    <t>8. Minneapolis</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Minnesota</t>
+  </si>
+  <si>
+    <t>9. Wichita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kansas</t>
+  </si>
+  <si>
+    <t>10. Cleveland</t>
+  </si>
+  <si>
+    <t>11. St. Louis</t>
+  </si>
+  <si>
+    <t>12. St. Paul</t>
+  </si>
+  <si>
+    <t>13. Cincinnati</t>
+  </si>
+  <si>
+    <t>14. Toledo</t>
+  </si>
+  <si>
+    <t>15. Lincoln</t>
+  </si>
+  <si>
+    <t>16. Fort Wayne</t>
+  </si>
+  <si>
+    <t>17. Madison</t>
+  </si>
+  <si>
+    <t>18. Des Moines</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iowa</t>
+  </si>
+  <si>
+    <t>19. Aurora</t>
+  </si>
+  <si>
+    <t>20. Grand Rapids</t>
+  </si>
+  <si>
+    <t>Milwaukee, Madison</t>
+  </si>
+  <si>
+    <t>Columbus, Cleveland, Cincinnati, Toledo</t>
+  </si>
+  <si>
+    <t>Omaha, Lincoln</t>
+  </si>
+  <si>
+    <t>Kansas City, St Louis</t>
+  </si>
+  <si>
+    <t>Minneapolis, St Paul</t>
+  </si>
+  <si>
+    <t>Detroit, Grand Rapids</t>
+  </si>
+  <si>
+    <t>Wichita</t>
+  </si>
+  <si>
+    <t>Des Moines</t>
+  </si>
+  <si>
+    <t>Indianapolis, Fort Wayne</t>
+  </si>
+  <si>
+    <t>Chicago, Aurora</t>
   </si>
 </sst>
 </file>
@@ -604,19 +734,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF4195D-6C9B-42AB-9327-DB9E6BBC2D19}">
   <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,7 +758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -644,7 +772,7 @@
         <v>12801539</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>7</v>
       </c>
@@ -652,7 +780,7 @@
         <v>6633053</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>8</v>
       </c>
@@ -660,7 +788,7 @@
         <v>9928300</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>9</v>
       </c>
@@ -668,7 +796,7 @@
         <v>11614373</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>10</v>
       </c>
@@ -676,7 +804,7 @@
         <v>5778708</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -687,7 +815,7 @@
         <v>3134693</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>13</v>
       </c>
@@ -695,7 +823,7 @@
         <v>2907289</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -703,7 +831,7 @@
         <v>5519952</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -711,7 +839,7 @@
         <v>6093000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>16</v>
       </c>
@@ -719,7 +847,7 @@
         <v>1907116</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>17</v>
       </c>
@@ -727,7 +855,7 @@
         <v>757952</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>18</v>
       </c>
@@ -735,7 +863,7 @@
         <v>865454</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -749,7 +877,7 @@
         <v>8944469</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -757,7 +885,7 @@
         <v>19745289</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -765,7 +893,7 @@
         <v>12784227</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>24</v>
       </c>
@@ -776,7 +904,7 @@
         <v>3576452</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>26</v>
       </c>
@@ -784,7 +912,7 @@
         <v>1331479</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>27</v>
       </c>
@@ -792,7 +920,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>28</v>
       </c>
@@ -800,7 +928,7 @@
         <v>1334795</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>29</v>
       </c>
@@ -808,7 +936,7 @@
         <v>1056426</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>30</v>
       </c>
@@ -816,7 +944,7 @@
         <v>624594</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -830,7 +958,7 @@
         <v>4863300</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -838,7 +966,7 @@
         <v>4436974</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -846,7 +974,7 @@
         <v>2988726</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -854,7 +982,7 @@
         <v>6651194</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>37</v>
       </c>
@@ -865,7 +993,7 @@
         <v>952065</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>39</v>
       </c>
@@ -873,7 +1001,7 @@
         <v>681170</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>40</v>
       </c>
@@ -881,7 +1009,7 @@
         <v>20612439</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>41</v>
       </c>
@@ -889,7 +1017,7 @@
         <v>10310371</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -897,7 +1025,7 @@
         <v>6016447</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -905,7 +1033,7 @@
         <v>10146788</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -913,7 +1041,7 @@
         <v>4961119</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -921,7 +1049,7 @@
         <v>8411808</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -929,7 +1057,7 @@
         <v>1831102</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>47</v>
       </c>
@@ -940,7 +1068,7 @@
         <v>2988248</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>49</v>
       </c>
@@ -948,7 +1076,7 @@
         <v>4681666</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>50</v>
       </c>
@@ -956,7 +1084,7 @@
         <v>3923561</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>51</v>
       </c>
@@ -964,7 +1092,7 @@
         <v>27862596</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>52</v>
       </c>
@@ -978,7 +1106,7 @@
         <v>6931071</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>55</v>
       </c>
@@ -986,7 +1114,7 @@
         <v>5540545</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>56</v>
       </c>
@@ -994,7 +1122,7 @@
         <v>1683140</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>57</v>
       </c>
@@ -1002,7 +1130,7 @@
         <v>1042520</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>58</v>
       </c>
@@ -1010,7 +1138,7 @@
         <v>2940058</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>59</v>
       </c>
@@ -1018,7 +1146,7 @@
         <v>2081015</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>60</v>
       </c>
@@ -1026,7 +1154,7 @@
         <v>3051217</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>61</v>
       </c>
@@ -1034,7 +1162,7 @@
         <v>585501</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>62</v>
       </c>
@@ -1045,7 +1173,7 @@
         <v>741894</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>64</v>
       </c>
@@ -1053,7 +1181,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>65</v>
       </c>
@@ -1061,7 +1189,7 @@
         <v>1428557</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>66</v>
       </c>
@@ -1069,7 +1197,7 @@
         <v>4093465</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>67</v>
       </c>
@@ -1077,7 +1205,7 @@
         <v>7288000</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
@@ -1092,4 +1220,415 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354566FC-BF8B-450D-8B0B-F3B142372E68}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E15DB987-6668-467D-B047-13516D2847C3}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1">
+        <v>599</v>
+      </c>
+      <c r="D1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2">
+        <v>248</v>
+      </c>
+      <c r="D2">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3">
+        <v>852</v>
+      </c>
+      <c r="D3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4">
+        <v>388</v>
+      </c>
+      <c r="D4">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5">
+        <v>298</v>
+      </c>
+      <c r="D5">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6">
+        <v>279</v>
+      </c>
+      <c r="D6">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>463</v>
+      </c>
+      <c r="D7">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>277</v>
+      </c>
+      <c r="D8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9">
+        <v>476</v>
+      </c>
+      <c r="D9">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10">
+        <v>314</v>
+      </c>
+      <c r="D10">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11">
+        <v>411</v>
+      </c>
+      <c r="D11">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12">
+        <v>300</v>
+      </c>
+      <c r="D12">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13">
+        <v>679</v>
+      </c>
+      <c r="D13">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14">
+        <v>195</v>
+      </c>
+      <c r="D14">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15">
+        <v>389</v>
+      </c>
+      <c r="D15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16">
+        <v>214</v>
+      </c>
+      <c r="D16">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17">
+        <v>853</v>
+      </c>
+      <c r="D17">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18">
+        <v>262</v>
+      </c>
+      <c r="D18">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>722</v>
+      </c>
+      <c r="E19">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20">
+        <v>200</v>
+      </c>
+      <c r="D20">
+        <v>946</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:E20">
+    <sortCondition descending="1" ref="B1:B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>